--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_No_Lineal_Estacionario_SETAR.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.7035312575577468</v>
+        <v>0.66173403998303</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.7113671716621648</v>
+        <v>0.6714338599525211</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.7115839334031406</v>
+        <v>0.6816002404638436</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.7156707932082101</v>
+        <v>0.6859773021489359</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.7242411280671145</v>
+        <v>0.6768286553107764</v>
       </c>
     </row>
   </sheetData>
